--- a/DateBase/orders/dang1_2024-10-14.xlsx
+++ b/DateBase/orders/dang1_2024-10-14.xlsx
@@ -1031,6 +1031,9 @@
       <c r="C71" t="str">
         <v>581_腊梅橙_wax orange_undefined_1bunch</v>
       </c>
+      <c r="F71" t="str">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1092,7 +1095,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0105050532301020401010103020362430203030102050202020201020102010102251310317133010100201010301520157131030301012080501051010101051030100</v>
+        <v>0105050532301020401010103020362430203030102050202020201020102010102251310317133010100201010301520157131030301012080501051010101051030102</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/dang1_2024-10-14.xlsx
+++ b/DateBase/orders/dang1_2024-10-14.xlsx
@@ -1032,7 +1032,7 @@
         <v>581_腊梅橙_wax orange_undefined_1bunch</v>
       </c>
       <c r="F71" t="str">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1095,7 +1095,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0105050532301020401010103020362430203030102050202020201020102010102251310317133010100201010301520157131030301012080501051010101051030102</v>
+        <v>01050505323010204010101030203624302030301020502020202010201020101022513103171330101002010103015201571310303010120805010510101010510301025</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/dang1_2024-10-14.xlsx
+++ b/DateBase/orders/dang1_2024-10-14.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L71"/>
+  <dimension ref="A1:L81"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1035,9 +1035,95 @@
         <v>25</v>
       </c>
     </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>10</v>
+      </c>
+      <c r="C72" t="str">
+        <v>108_绣球单瓣深蓝_Hydrangea Dark Blue S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F72" t="str">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="C73" t="str">
+        <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F73" t="str">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="C74" t="str">
+        <v>577_腊梅白_wax white_undefined_1bunch</v>
+      </c>
+      <c r="F74" t="str">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="C75" t="str">
+        <v>578_腊梅粉_wax pink_undefined_1bunch</v>
+      </c>
+      <c r="F75" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>11</v>
+      </c>
+      <c r="C76" t="str">
+        <v>316_尤加利叶大叶_Eucalyptus Cinerea_undefined_1bunch</v>
+      </c>
+      <c r="F76" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="C77" t="str">
+        <v>597_尤加利叶小叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F77" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="C78" t="str">
+        <v>315_尤加利叶圆叶_Eucalyptus Populus_undefined_1bunch</v>
+      </c>
+      <c r="F78" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="C79" t="str">
+        <v>317_尤加利叶细叶_Eucalyptus Parvifolia_undefined_1bunch</v>
+      </c>
+      <c r="F79" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>12</v>
+      </c>
+      <c r="C80" t="str">
+        <v>316_尤加利叶大叶_Eucalyptus Cinerea_undefined_1bunch</v>
+      </c>
+      <c r="F80" t="str">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="C81" t="str">
+        <v>597_尤加利叶小叶_undefined_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L71"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L81"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1095,7 +1181,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01050505323010204010101030203624302030301020502020202010201020101022513103171330101002010103015201571310303010120805010510101010510301025</v>
+        <v>01050505323010204010101030203624302030301020502020202010201020101022513103171330101002010103015201571310303010120805010510101010510301025557260515102030450</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/dang1_2024-10-14.xlsx
+++ b/DateBase/orders/dang1_2024-10-14.xlsx
@@ -1120,6 +1120,9 @@
       <c r="C81" t="str">
         <v>597_尤加利叶小叶_undefined_undefined_1bunch</v>
       </c>
+      <c r="F81" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1181,7 +1184,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01050505323010204010101030203624302030301020502020202010201020101022513103171330101002010103015201571310303010120805010510101010510301025557260515102030450</v>
+        <v>01050505323010204010101030203624302030301020502020202010201020101022513103171330101002010103015201571310303010120805010510101010510301025557260515102030451</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/dang1_2024-10-14.xlsx
+++ b/DateBase/orders/dang1_2024-10-14.xlsx
@@ -1121,7 +1121,7 @@
         <v>597_尤加利叶小叶_undefined_undefined_1bunch</v>
       </c>
       <c r="F81" t="str">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1184,7 +1184,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01050505323010204010101030203624302030301020502020202010201020101022513103171330101002010103015201571310303010120805010510101010510301025557260515102030451</v>
+        <v>010505053230102040101010302036243020303010205020202020102010201010225131031713301010020101030152015713103030101208050105101010105103010255572605151020304510</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/dang1_2024-10-14.xlsx
+++ b/DateBase/orders/dang1_2024-10-14.xlsx
@@ -1186,6 +1186,9 @@
       <c r="G2" t="str">
         <v>010505053230102040101010302036243020303010205020202020102010201010225131031713301010020101030152015713103030101208050105101010105103010255572605151020304510</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
